--- a/ig/messaging/2.2.0/all-profiles.xlsx
+++ b/ig/messaging/2.2.0/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T07:13:40+02:00</t>
+    <t>2024-06-28T10:59:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -484,7 +484,7 @@
   </si>
   <si>
     <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}medcom-messaging-1:The MessageHeader resource shall conform to medcom-messaging-messageHeader profile {entry[0].resource.conformsTo('http://medcomfhir.dk/ig/messaging/StructureDefinition/medcom-messaging-messageHeader')}medcom-messaging-2:There shall be at least one Provenance resource in a MedCom message {entry.resource.ofType(Provenance).exists()}medcom-messaging-3:All Provenance resources shall conform to the medcom-messaging-provenance profile {entry.resource.ofType(Provenance).conformsTo('http://medcomfhir.dk/ig/messaging/StructureDefinition/medcom-messaging-provenance').allTrue()}</t>
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}medcom-messaging-1:The MessageHeader resource shall conform to medcom-messaging-messageHeader profile {entry[0].resource.conformsTo('http://medcomfhir.dk/ig/messaging/StructureDefinition/medcom-messaging-messageHeader')}medcom-messaging-2:There shall be at least one Provenance resource in a MedCom message {entry.resource.ofType(Provenance).exists()}</t>
   </si>
   <si>
     <t>Bundle.id</t>
